--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2765073.037812239</v>
+        <v>2873715.199115051</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8752429.160932066</v>
+        <v>8757922.806920482</v>
       </c>
     </row>
     <row r="11">
@@ -677,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>256.7288051590725</v>
       </c>
       <c r="Y2" t="n">
-        <v>108.3904376417211</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>128.8267163355885</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>24.97127895129133</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>240.162641481192</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>241.9058054044793</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>105.5027752869404</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>53.08152104755202</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>191.2510692431483</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>341.5524295625057</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>95.15652898566596</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>24.28924854746604</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1531,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>21.90286287505374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>84.53948348634549</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>40.53421095546916</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>66.25628701154713</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>32.84316668127778</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>97.24762927924253</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2242,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2293,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>106.8299898147636</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>183.6332960747971</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>125.285163539206</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881292</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>76.9588911447963</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>52.57516893523083</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>230.0898280815578</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>87.73390848162707</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>85.5523981099843</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>146.283407496412</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3667,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>177.9413471369467</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>31.26260713376619</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>104.4564809702501</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>106.3048907942298</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1181.996585635751</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C2" t="n">
-        <v>1181.996585635751</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.996585635751</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182944</v>
+        <v>1638.509566775675</v>
       </c>
       <c r="Y2" t="n">
-        <v>1181.996585635751</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1861.38035112061</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2193.450786296771</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2440.633520129068</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2555.949435236614</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>664.9787363064645</v>
+        <v>349.3612475582987</v>
       </c>
       <c r="C4" t="n">
-        <v>664.9787363064645</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D4" t="n">
-        <v>514.8620968941287</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
         <v>51.2467865680031</v>
@@ -4486,52 +4488,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1611.222605982284</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1611.222605982284</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1611.222605982284</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1322.104268486121</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1067.419780280234</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>1067.419780280234</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>1067.419780280234</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.6272011367042</v>
+        <v>349.3612475582987</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1378.810406950777</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C5" t="n">
-        <v>1136.221880202098</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953474</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057398</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4595,22 +4597,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270159</v>
+        <v>2317.990030011792</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926588</v>
+        <v>1986.927142668221</v>
       </c>
       <c r="W5" t="n">
-        <v>1768.949738926588</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="X5" t="n">
-        <v>1768.949738926588</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="Y5" t="n">
-        <v>1378.810406950777</v>
+        <v>1634.158487398107</v>
       </c>
     </row>
     <row r="6">
@@ -4650,7 +4652,7 @@
         <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
         <v>1480.485115687205</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>516.8349612147969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C7" t="n">
-        <v>347.89877828689</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>347.89877828689</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
         <v>51.2467865680031</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1333.24891234856</v>
       </c>
       <c r="U7" t="n">
-        <v>825.137147448514</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426272</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W7" t="n">
-        <v>570.4526592426272</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X7" t="n">
-        <v>516.8349612147969</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y7" t="n">
-        <v>516.8349612147969</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.864437266279</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>2691.069367567292</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X8" t="n">
-        <v>2317.603609306213</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="Y8" t="n">
-        <v>1927.464277330401</v>
+        <v>2008.591232902438</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.7831921883597</v>
+        <v>620.8411572468201</v>
       </c>
       <c r="C10" t="n">
-        <v>308.8470092604529</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="D10" t="n">
-        <v>308.8470092604529</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E10" t="n">
-        <v>308.8470092604529</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F10" t="n">
-        <v>308.8470092604529</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1312.699371257551</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1023.28220122059</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>1023.28220122059</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.4316570185995</v>
+        <v>802.4896220770598</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,10 +5035,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5057,34 +5059,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>198.027470314254</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E16" t="n">
-        <v>363.7369613277355</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F16" t="n">
-        <v>216.8470138298251</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G16" t="n">
-        <v>216.8470138298251</v>
+        <v>302.45403664168</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>160.7422054838781</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5555,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>3200.825397924057</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556945</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D19" t="n">
-        <v>415.5933575433587</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E19" t="n">
-        <v>415.5933575433587</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F19" t="n">
-        <v>268.7034100454483</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>4409.748389488606</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>4120.673162832804</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>4120.673162832804</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>3831.255992795844</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>3603.266441897827</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>3382.473862754297</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5750,10 +5752,10 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E22" t="n">
         <v>631.7012443408905</v>
@@ -5941,19 +5943,19 @@
         <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>2052.406834234631</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1797.722346028744</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="23">
@@ -5969,46 +5971,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>542.9134462654469</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343197</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219839</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>449.3439841395908</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>302.4540366416804</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811332</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532263</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1353.195110654903</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.402531511373</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6454,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,7 +6475,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6549,16 +6551,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3228.447361044447</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="C31" t="n">
-        <v>3059.51117811654</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="D31" t="n">
-        <v>2909.394538704204</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E31" t="n">
-        <v>2761.481445121811</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F31" t="n">
-        <v>2614.591497623901</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H31" t="n">
         <v>2419.773435218391</v>
@@ -6643,28 +6645,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.331149328841</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122954</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.229491085994</v>
+        <v>3512.203170455601</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.239940187977</v>
+        <v>3284.213619557584</v>
       </c>
       <c r="Y31" t="n">
-        <v>3228.447361044447</v>
+        <v>3063.421040414054</v>
       </c>
     </row>
     <row r="32">
@@ -6680,55 +6682,55 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.9745311434716</v>
+        <v>3027.428036214345</v>
       </c>
       <c r="C34" t="n">
-        <v>701.0383482155647</v>
+        <v>2858.491853286438</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>2708.375213874102</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>2708.375213874102</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>4507.978318053497</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>4288.376853076438</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>4201.960289328979</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052219</v>
+        <v>3947.275801123093</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.405126015259</v>
+        <v>3657.858631086132</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.415575117241</v>
+        <v>3429.869080188114</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.622995973711</v>
+        <v>3209.076501044584</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,13 +6949,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921476</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898186995</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V37" t="n">
-        <v>1938.2863919474</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W37" t="n">
-        <v>1648.869221910439</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>4221.331149328841</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>4041.592414847077</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>3752.175244810116</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>3524.185693912098</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7390,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,31 +7423,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7488,22 +7490,22 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T43" t="n">
-        <v>4335.421017366253</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U43" t="n">
-        <v>4335.421017366253</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V43" t="n">
-        <v>4080.736529160366</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W43" t="n">
-        <v>3791.319359123406</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X43" t="n">
-        <v>3563.329808225389</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>3342.537229081859</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,16 +7681,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2985.713220456422</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>2816.777037528515</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>2816.777037528515</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>2668.863943946122</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>2668.863943946122</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3388.154264430192</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3167.361685286662</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8060,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>240.446544241743</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>27.39221874048003</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>265.0304328515139</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23419,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>143.6212754172151</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>201.6449909028987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>99.76050189075474</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>15.0095493070184</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>132.6809716109911</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>120.1578210480457</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>179.3544845744806</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>102.8897022617939</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>40.23897475306289</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>148.7507642442409</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>112.948969357038</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>56.43317025503325</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>60.88156453658529</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>200.6320762792598</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>139.4693302300327</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>79.42624789262516</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>74.19629618688128</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>35.11263957635547</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>112.9489693570382</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>59.21924749803905</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>765563.0767745855</v>
+        <v>771505.0042756563</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752710.0443633791</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>752710.0443633791</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>752710.0443633791</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633791</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="M2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,19 +26392,19 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>131909.7268316249</v>
+      </c>
+      <c r="C4" t="n">
+        <v>131909.7268316249</v>
+      </c>
+      <c r="D4" t="n">
         <v>131909.726831625</v>
       </c>
-      <c r="C4" t="n">
-        <v>131909.726831625</v>
-      </c>
-      <c r="D4" t="n">
-        <v>86084.45926805866</v>
-      </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707423</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707335</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707423</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="O4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.424496707331</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707335</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707333</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707341</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707328</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707337</v>
-      </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26525,43 +26527,43 @@
         <v>452511.9608665642</v>
       </c>
       <c r="D6" t="n">
-        <v>290713.9198682439</v>
+        <v>452511.9608665641</v>
       </c>
       <c r="E6" t="n">
-        <v>232463.5286162855</v>
+        <v>50390.54879909509</v>
       </c>
       <c r="F6" t="n">
-        <v>557875.9904236406</v>
+        <v>557875.9904236405</v>
       </c>
       <c r="G6" t="n">
         <v>557875.9904236402</v>
       </c>
       <c r="H6" t="n">
-        <v>557875.9904236409</v>
+        <v>557875.9904236404</v>
       </c>
       <c r="I6" t="n">
-        <v>557875.9904236408</v>
+        <v>557875.9904236404</v>
       </c>
       <c r="J6" t="n">
-        <v>390270.8126136581</v>
+        <v>390270.8126136579</v>
       </c>
       <c r="K6" t="n">
         <v>557875.9904236406</v>
       </c>
       <c r="L6" t="n">
-        <v>509582.02041545</v>
+        <v>557875.9904236402</v>
       </c>
       <c r="M6" t="n">
-        <v>472820.9624881287</v>
+        <v>425268.6966947138</v>
       </c>
       <c r="N6" t="n">
-        <v>557875.9904236408</v>
+        <v>557875.9904236401</v>
       </c>
       <c r="O6" t="n">
         <v>557875.9904236405</v>
       </c>
       <c r="P6" t="n">
-        <v>557875.9904236406</v>
+        <v>557875.9904236405</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26795,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>113.0022955193966</v>
       </c>
       <c r="Y2" t="n">
-        <v>277.8475010143325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>38.42010476303938</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>76.58629346828231</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>125.1102502898156</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>9.139444723982706</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27791,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>115.2459207102716</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>172.6281343414851</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>157.9898994742647</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>44.68550909354786</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>70.86927927336227</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28064,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>227.848394776362</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28330,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -29329,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-5.464171643889758e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29752,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,13 +31852,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>373.3554713800157</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32078,28 +32080,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>606.5820696732821</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32309,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>271.1474903386692</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,28 +32548,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>336.3457189021232</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L24" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>399.190220890813</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>409.0029787211719</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5951359912044</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>211.7351844430268</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N39" t="n">
-        <v>265.5442652399242</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,13 +34210,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>488.7223436347931</v>
+        <v>246.9596973201445</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34226,7 +34228,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>393.3904345522222</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>490.1260733652754</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>6.454437538930121</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35018,10 +35020,10 @@
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>562.7107934893642</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>631.9617651335544</v>
       </c>
       <c r="N6" t="n">
         <v>391.197099592874</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35422,7 +35424,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35431,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>242.0137592966824</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>463.9858252288377</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5512458942248</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36194,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>205.0040068187898</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L24" t="n">
-        <v>116.3353646931863</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>261.348781916454</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>266.8689447991536</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.4611020691861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>73.1808046631526</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N39" t="n">
-        <v>134.202553156591</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37795,7 +37797,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
@@ -37856,13 +37858,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>350.1679638549189</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,7 +37876,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>254.8360547723481</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2873715.199115051</v>
+        <v>2869578.041864899</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.48435851</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>238.5163862101639</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>256.7288051590725</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>128.8267163355885</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.35912105066066</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>138.2721356645433</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.9058054044793</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>105.5027752869404</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>138.0518602851296</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>394.3530524784113</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>341.5524295625057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>85.36610313819087</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>24.28924854746604</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>94.05355358057936</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>84.53948348634549</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>66.25628701154713</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>97.24762927924253</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>20.43112068613155</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>183.6332960747971</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881292</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>230.0898280815578</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>85.5523981099843</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>98.72106119200248</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>41.55695577161151</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>31.26260713376619</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.370234799863</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>684.90618255198</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>299.1179299537358</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>292.1724292045323</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1897.831592188879</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>1638.509566775675</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y2" t="n">
-        <v>1248.370234799863</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
         <v>1218.104987164206</v>
@@ -4427,7 +4427,7 @@
         <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349.3612475582987</v>
+        <v>711.8144409709064</v>
       </c>
       <c r="C4" t="n">
-        <v>219.2332512597245</v>
+        <v>542.8782580429995</v>
       </c>
       <c r="D4" t="n">
-        <v>219.2332512597245</v>
+        <v>392.7616186306637</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>244.8485250482706</v>
       </c>
       <c r="F4" t="n">
         <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4524,16 +4524,16 @@
         <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387894</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W4" t="n">
-        <v>570.1538267018288</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X4" t="n">
-        <v>570.1538267018288</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y4" t="n">
-        <v>349.3612475582987</v>
+        <v>893.4629058011461</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1634.158487398107</v>
+        <v>1423.993461865603</v>
       </c>
       <c r="C5" t="n">
-        <v>1634.158487398107</v>
+        <v>1423.993461865603</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>1065.727763258853</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>679.9395106606084</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>268.9536058710009</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>257.2892596356938</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,13 +4567,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2317.990030011792</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1986.927142668221</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>1634.158487398107</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>1634.158487398107</v>
+        <v>1810.593301929725</v>
       </c>
       <c r="Y5" t="n">
-        <v>1634.158487398107</v>
+        <v>1810.593301929725</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.2467865680031</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C7" t="n">
         <v>51.2467865680031</v>
@@ -4725,52 +4725,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1333.24891234856</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1044.130574852398</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>789.4460866465112</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W7" t="n">
-        <v>500.0289166095505</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="X7" t="n">
-        <v>272.0393657115332</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.2467865680031</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1621.991392838317</v>
+        <v>1195.924014069019</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.991392838317</v>
+        <v>826.9614971286078</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>826.9614971286078</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>826.9614971286078</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>820.0159963794043</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W8" t="n">
-        <v>2353.59368700598</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X8" t="n">
-        <v>2353.59368700598</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y8" t="n">
-        <v>2008.591232902438</v>
+        <v>1582.523854133141</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919906</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>620.8411572468201</v>
+        <v>751.3310369968228</v>
       </c>
       <c r="C10" t="n">
-        <v>451.9049743189132</v>
+        <v>582.3948540689159</v>
       </c>
       <c r="D10" t="n">
-        <v>451.9049743189132</v>
+        <v>432.2782146565802</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>284.3651210741871</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>137.4751735762767</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>137.4751735762767</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>137.4751735762767</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312198</v>
@@ -4977,37 +4977,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1312.699371257551</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1023.28220122059</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X10" t="n">
-        <v>1023.28220122059</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y10" t="n">
-        <v>802.4896220770598</v>
+        <v>932.9795018270626</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,10 +5035,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5059,34 +5059,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.2295783107356</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.3099000622261</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3737171343192</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2570777219835</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>449.3439841395904</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>302.45403664168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>160.7422054838781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.958364892466</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3200.825397924057</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>3031.88921499615</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>2881.772575583814</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>2733.859482001421</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4409.748389488606</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>4120.673162832804</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>4120.673162832804</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>3831.255992795844</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>3603.266441897827</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>3382.473862754297</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5746,28 +5746,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.2858920990371</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5995,19 +5995,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6138,10 +6138,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6311,22 +6311,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6551,19 +6551,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2881.772575583814</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2881.772575583814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2881.772575583814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3512.203170455601</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3284.213619557584</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3063.421040414054</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3027.428036214345</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C34" t="n">
-        <v>2858.491853286438</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>2708.375213874102</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2708.375213874102</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2561.485266376192</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076438</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4201.960289328979</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3947.275801123093</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3657.858631086132</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3429.869080188114</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3209.076501044584</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>721.7774158311365</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
         <v>402.7245934908939</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2404.986360578632</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2185.384895601574</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1896.309668945771</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1641.625180739884</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1352.208010702924</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1124.218459804906</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>903.4258806613763</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>444.7013164925216</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>444.7013164925216</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>277.5052172074016</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7933860495997</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,37 +7426,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2415.384692536053</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2415.384692536053</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>240.446544241743</v>
+        <v>30.36925650589512</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111053</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>71.47058471168948</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>201.6449909028987</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>15.0095493070184</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>120.1578210480457</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>102.8897022617939</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>56.43317025503325</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>200.6320762792598</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>39.70888054695403</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>35.11263957635547</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>752710.0443633791</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>752710.0443633791</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>752710.0443633791</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="O2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
         <v>131909.726831625</v>
@@ -26429,34 +26429,34 @@
         <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707423</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707335</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707423</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-662239.8227093553</v>
+        <v>-662239.8227093555</v>
       </c>
       <c r="C6" t="n">
-        <v>452511.9608665642</v>
+        <v>452511.960866564</v>
       </c>
       <c r="D6" t="n">
-        <v>452511.9608665641</v>
+        <v>452511.960866564</v>
       </c>
       <c r="E6" t="n">
-        <v>50390.54879909509</v>
+        <v>50043.16954473786</v>
       </c>
       <c r="F6" t="n">
-        <v>557875.9904236405</v>
+        <v>557528.6111692834</v>
       </c>
       <c r="G6" t="n">
-        <v>557875.9904236402</v>
+        <v>557528.6111692836</v>
       </c>
       <c r="H6" t="n">
-        <v>557875.9904236404</v>
+        <v>557528.6111692835</v>
       </c>
       <c r="I6" t="n">
-        <v>557875.9904236404</v>
+        <v>557528.6111692835</v>
       </c>
       <c r="J6" t="n">
-        <v>390270.8126136579</v>
+        <v>389923.433359301</v>
       </c>
       <c r="K6" t="n">
-        <v>557875.9904236406</v>
+        <v>557528.6111692837</v>
       </c>
       <c r="L6" t="n">
-        <v>557875.9904236402</v>
+        <v>557528.6111692837</v>
       </c>
       <c r="M6" t="n">
-        <v>425268.6966947138</v>
+        <v>424921.3174403567</v>
       </c>
       <c r="N6" t="n">
-        <v>557875.9904236401</v>
+        <v>557528.6111692839</v>
       </c>
       <c r="O6" t="n">
-        <v>557875.9904236405</v>
+        <v>557528.6111692835</v>
       </c>
       <c r="P6" t="n">
-        <v>557875.9904236405</v>
+        <v>557528.6111692833</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>173.0313165627901</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>113.0022955193966</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>38.42010476303938</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>120.0619269722706</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27596,10 +27596,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>162.746416897862</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>9.139444723982706</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27791,7 +27791,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>115.2459207102716</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>148.4711380514614</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>17.19465029454267</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.68550909354786</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>19.43049206570971</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28070,13 +28070,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>227.848394776362</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,34 +32074,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33031,25 +33031,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>303.4297552732313</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33502,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,22 +33742,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,25 +33979,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>271.1474903386692</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>246.9596973201445</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
@@ -34786,22 +34786,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>490.1260733652754</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>631.9617651335544</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419598</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243153</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>163.7852262023929</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>160.8335108287869</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>128.5512458942248</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>108.4053175402703</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2869578.041864899</v>
+        <v>2871338.572167685</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>238.5163862101639</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>248.3691134852431</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>25.35912105066066</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>25.35912105066088</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>138.2721356645433</v>
+        <v>1.782072264243446</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>138.0518602851296</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>12.78122206559917</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>394.3530524784113</v>
+        <v>47.09132058709929</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>85.36610313819087</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>197.4147107719974</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444163</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>94.05355358057936</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428129</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766848</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634836</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060285</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>42.53134576113585</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
-        <v>20.43112068613155</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>108.2950343703258</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.702514956955</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812101</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018866</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>98.72106119200248</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576164</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>0.8253826161915776</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410139</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.799772605717012</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1412.134398099142</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="C2" t="n">
-        <v>1043.17188115873</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D2" t="n">
-        <v>684.90618255198</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>299.1179299537358</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>292.1724292045323</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
         <v>51.24678656800311</v>
@@ -4330,19 +4330,19 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
         <v>2055.22848474084</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1978.016587123114</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1978.016587123114</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1978.016587123114</v>
       </c>
       <c r="X2" t="n">
-        <v>2188.873570139076</v>
+        <v>1604.550828862034</v>
       </c>
       <c r="Y2" t="n">
-        <v>1798.734238163264</v>
+        <v>1604.550828862034</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4412,22 +4412,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1343.569531118699</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1675.639966294861</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2238.100841080695</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>711.8144409709064</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C4" t="n">
-        <v>542.8782580429995</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D4" t="n">
-        <v>392.7616186306637</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E4" t="n">
-        <v>244.8485250482706</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
         <v>219.2332512597245</v>
@@ -4488,16 +4488,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,7 +4509,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
@@ -4524,16 +4524,16 @@
         <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1114.255484944676</v>
+        <v>1088.64021115613</v>
       </c>
       <c r="W4" t="n">
-        <v>1114.255484944676</v>
+        <v>1088.64021115613</v>
       </c>
       <c r="X4" t="n">
-        <v>1114.255484944676</v>
+        <v>1088.64021115613</v>
       </c>
       <c r="Y4" t="n">
-        <v>893.4629058011461</v>
+        <v>867.8476320126</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1423.993461865603</v>
+        <v>1588.713578732509</v>
       </c>
       <c r="C5" t="n">
-        <v>1423.993461865603</v>
+        <v>1219.751061792098</v>
       </c>
       <c r="D5" t="n">
-        <v>1065.727763258853</v>
+        <v>861.4853631853473</v>
       </c>
       <c r="E5" t="n">
-        <v>679.9395106606084</v>
+        <v>475.6971105871031</v>
       </c>
       <c r="F5" t="n">
-        <v>268.9536058710009</v>
+        <v>64.7112057974955</v>
       </c>
       <c r="G5" t="n">
-        <v>257.2892596356938</v>
+        <v>53.04685956218843</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="X5" t="n">
-        <v>1810.593301929725</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="Y5" t="n">
-        <v>1810.593301929725</v>
+        <v>1975.313418796631</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>220.18296949591</v>
+        <v>919.6966947956497</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2467865680031</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.862713590079</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1244.744376093917</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>990.0598878880302</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W7" t="n">
-        <v>850.6135643676972</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X7" t="n">
-        <v>622.6240134696799</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y7" t="n">
-        <v>401.8314343261497</v>
+        <v>1101.345159625889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1195.924014069019</v>
+        <v>474.7217947496378</v>
       </c>
       <c r="C8" t="n">
-        <v>826.9614971286078</v>
+        <v>105.7592778092261</v>
       </c>
       <c r="D8" t="n">
-        <v>826.9614971286078</v>
+        <v>105.7592778092261</v>
       </c>
       <c r="E8" t="n">
-        <v>826.9614971286078</v>
+        <v>105.7592778092261</v>
       </c>
       <c r="F8" t="n">
-        <v>820.0159963794043</v>
+        <v>98.81377706002262</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.758267664335</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W8" t="n">
-        <v>1955.989612394221</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="X8" t="n">
-        <v>1582.523854133141</v>
+        <v>1251.460966789571</v>
       </c>
       <c r="Y8" t="n">
-        <v>1582.523854133141</v>
+        <v>861.3216348137596</v>
       </c>
     </row>
     <row r="9">
@@ -4877,25 +4877,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>751.3310369968228</v>
+        <v>517.1895564061562</v>
       </c>
       <c r="C10" t="n">
-        <v>582.3948540689159</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D10" t="n">
-        <v>432.2782146565802</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>284.3651210741871</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>137.4751735762767</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>137.4751735762767</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>137.4751735762767</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1437.037321314904</v>
       </c>
       <c r="W10" t="n">
-        <v>1381.76163186861</v>
+        <v>1147.620151277943</v>
       </c>
       <c r="X10" t="n">
-        <v>1153.772080970593</v>
+        <v>919.630600379926</v>
       </c>
       <c r="Y10" t="n">
-        <v>932.9795018270626</v>
+        <v>698.8380212363959</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168636</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362711</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D13" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E13" t="n">
-        <v>417.7969033733013</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F13" t="n">
-        <v>270.906955875391</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5211,25 +5211,25 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
         <v>1688.385853854706</v>
@@ -5238,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>409.1360811687887</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845476</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,19 +5503,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5524,43 +5524,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>707.6725264685185</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406115</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282757</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458824</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216015</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238956</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1882.204779583154</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1627.520291377267</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1338.103121340306</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1110.113570442289</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>889.3209912987584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851662</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>527.7722521572592</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>527.7722521572592</v>
       </c>
       <c r="E22" t="n">
-        <v>363.7369613277355</v>
+        <v>527.7722521572592</v>
       </c>
       <c r="F22" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429806</v>
       </c>
       <c r="G22" t="n">
-        <v>196.5408620426154</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058936</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154061</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,28 +6001,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6220,13 +6220,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6238,34 +6238,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>634.927936255316</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>816.5764010855557</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,52 +7162,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>1963.765362972545</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2515.675093211832</v>
       </c>
       <c r="P39" t="n">
         <v>2516.421633107662</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D40" t="n">
         <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1735.314832085243</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1480.630343879356</v>
       </c>
       <c r="W40" t="n">
         <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>963.2236229443776</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>742.4310438008474</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7426,37 +7426,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>30.36925650589512</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>186.4490126143848</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-1.884740015454436e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-9.508613630504516e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>71.47058471168948</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194268</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194318</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610418</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>102.8897022617955</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194315</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194137</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>65.54986409393007</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>46.45968844823028</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>46.45968844823102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.460138034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380337</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380338</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380336</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380336</v>
-      </c>
       <c r="E2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="F2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="F2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="G2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
-      </c>
       <c r="I2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="L2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="N2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.42449670718</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670721</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.42449670718</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707323</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707235</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670732</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.42449670733</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707317</v>
       </c>
       <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707317</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26505,10 +26505,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-662239.8227093555</v>
       </c>
       <c r="C6" t="n">
-        <v>452511.960866564</v>
+        <v>452511.9608665641</v>
       </c>
       <c r="D6" t="n">
-        <v>452511.960866564</v>
+        <v>452511.9608665641</v>
       </c>
       <c r="E6" t="n">
-        <v>50043.16954473786</v>
+        <v>50355.81087365872</v>
       </c>
       <c r="F6" t="n">
-        <v>557528.6111692834</v>
+        <v>557841.2524982054</v>
       </c>
       <c r="G6" t="n">
-        <v>557528.6111692836</v>
+        <v>557841.2524982052</v>
       </c>
       <c r="H6" t="n">
-        <v>557528.6111692835</v>
+        <v>557841.2524982051</v>
       </c>
       <c r="I6" t="n">
-        <v>557528.6111692835</v>
+        <v>557841.2524982049</v>
       </c>
       <c r="J6" t="n">
-        <v>389923.433359301</v>
+        <v>390236.0746882223</v>
       </c>
       <c r="K6" t="n">
-        <v>557528.6111692837</v>
+        <v>557841.2524982053</v>
       </c>
       <c r="L6" t="n">
-        <v>557528.6111692837</v>
+        <v>557841.2524982053</v>
       </c>
       <c r="M6" t="n">
-        <v>424921.3174403567</v>
+        <v>425233.9587692783</v>
       </c>
       <c r="N6" t="n">
-        <v>557528.6111692839</v>
+        <v>557841.2524982048</v>
       </c>
       <c r="O6" t="n">
-        <v>557528.6111692835</v>
+        <v>557841.2524982049</v>
       </c>
       <c r="P6" t="n">
-        <v>557528.6111692833</v>
+        <v>557841.2524982053</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,28 +26792,28 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>173.0313165627901</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>2.676136643218911</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>120.0619269722706</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>226.7785222731671</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>162.746416897862</v>
+        <v>299.236480298162</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>148.4711380514614</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>205.8034312864956</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>17.19465029454267</v>
+        <v>364.4563821858547</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.43049206570971</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>54.72293255183064</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,10 +28089,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-2.588245020606023e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,13 +28140,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-2.609014836782796e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-1.126308242074345e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
     </row>
     <row r="17">
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-5.487218467042014e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113943</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>303.402437346475</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,13 +33964,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,19 +33979,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>271.1474903386692</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171886</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.582898494972</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>280.0487856294274</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>302.9297349452394</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>462.200585628061</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35573,22 +35573,22 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>165.560998372116</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35822,10 +35822,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36059,10 +36059,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36290,16 +36290,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36533,10 +36533,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902929</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>128.5512458942248</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028583389</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
